--- a/Data/Doornbos Linie netstations.xlsx
+++ b/Data/Doornbos Linie netstations.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ED4FC-F996-42F3-B1B8-B1424DFF809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA380BD-0FA6-47FA-9F2A-18396707287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doornbos Linie netstations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -406,19 +403,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,15 +705,15 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="1026" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -776,12 +760,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>111529222</v>
       </c>
       <c r="B2">
-        <f>_xlfn.IFNA(VLOOKUP(A2,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -824,13 +807,12 @@
         <v>51.600838522866567</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>122126056</v>
       </c>
       <c r="B3">
-        <f>_xlfn.IFNA(VLOOKUP(A3,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -872,13 +854,12 @@
         <v>51.600655844771318</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.42760907578097E+18</v>
       </c>
       <c r="B4">
-        <f>_xlfn.IFNA(VLOOKUP(A4,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -920,13 +901,12 @@
         <v>51.597661819177333</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1.42760907578112E+18</v>
       </c>
       <c r="B5">
-        <f>_xlfn.IFNA(VLOOKUP(A5,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -968,13 +948,12 @@
         <v>51.599856539571817</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>19127887</v>
       </c>
       <c r="B6">
-        <f>_xlfn.IFNA(VLOOKUP(A6,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1016,12 +995,11 @@
         <v>51.598403404053343</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>19127895</v>
       </c>
       <c r="B7">
-        <f>_xlfn.IFNA(VLOOKUP(A7,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -1064,13 +1042,12 @@
         <v>51.598223305534709</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19127935</v>
       </c>
       <c r="B8">
-        <f>_xlfn.IFNA(VLOOKUP(A8,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1112,12 +1089,11 @@
         <v>51.597440965844918</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>19128003</v>
       </c>
       <c r="B9">
-        <f>_xlfn.IFNA(VLOOKUP(A9,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C9" t="s">
@@ -1160,13 +1136,12 @@
         <v>51.601809955363173</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>19128009</v>
       </c>
       <c r="B10">
-        <f>_xlfn.IFNA(VLOOKUP(A10,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1208,13 +1183,12 @@
         <v>51.598645364909338</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>19128027</v>
       </c>
       <c r="B11">
-        <f>_xlfn.IFNA(VLOOKUP(A11,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1256,13 +1230,12 @@
         <v>51.600646716668287</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>19128071</v>
       </c>
       <c r="B12">
-        <f>_xlfn.IFNA(VLOOKUP(A12,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1304,13 +1277,12 @@
         <v>51.598428129659737</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>19128095</v>
       </c>
       <c r="B13">
-        <f>_xlfn.IFNA(VLOOKUP(A13,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1352,13 +1324,12 @@
         <v>51.597188956024389</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>19128101</v>
       </c>
       <c r="B14">
-        <f>_xlfn.IFNA(VLOOKUP(A14,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1400,13 +1371,12 @@
         <v>51.597859546174341</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>19128103</v>
       </c>
       <c r="B15">
-        <f>_xlfn.IFNA(VLOOKUP(A15,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1448,13 +1418,12 @@
         <v>51.601006532803993</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>19128141</v>
       </c>
       <c r="B16">
-        <f>_xlfn.IFNA(VLOOKUP(A16,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1496,13 +1465,12 @@
         <v>51.597207129514914</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19128173</v>
       </c>
       <c r="B17">
-        <f>_xlfn.IFNA(VLOOKUP(A17,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1544,13 +1512,12 @@
         <v>51.597345579034553</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>19128195</v>
       </c>
       <c r="B18">
-        <f>_xlfn.IFNA(VLOOKUP(A18,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1592,12 +1559,11 @@
         <v>51.601090608842703</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19128373</v>
       </c>
       <c r="B19">
-        <f>_xlfn.IFNA(VLOOKUP(A19,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C19" t="s">
@@ -1640,13 +1606,12 @@
         <v>51.598256995236468</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19128379</v>
       </c>
       <c r="B20">
-        <f>_xlfn.IFNA(VLOOKUP(A20,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1688,12 +1653,11 @@
         <v>51.599310716552317</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19128385</v>
       </c>
       <c r="B21">
-        <f>_xlfn.IFNA(VLOOKUP(A21,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C21" t="s">
@@ -1736,13 +1700,12 @@
         <v>51.597668655675093</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19825445</v>
       </c>
       <c r="B22">
-        <f>_xlfn.IFNA(VLOOKUP(A22,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1784,13 +1747,12 @@
         <v>51.599216390339663</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19825469</v>
       </c>
       <c r="B23">
-        <f>_xlfn.IFNA(VLOOKUP(A23,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1832,12 +1794,11 @@
         <v>51.600047066931467</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19825481</v>
       </c>
       <c r="B24">
-        <f>_xlfn.IFNA(VLOOKUP(A24,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C24" t="s">
@@ -1880,12 +1841,11 @@
         <v>51.599557976120551</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>19825489</v>
       </c>
       <c r="B25">
-        <f>_xlfn.IFNA(VLOOKUP(A25,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C25" t="s">
@@ -1928,12 +1888,11 @@
         <v>51.597014367835747</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19825602</v>
       </c>
       <c r="B26">
-        <f>_xlfn.IFNA(VLOOKUP(A26,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C26" t="s">
@@ -1976,12 +1935,11 @@
         <v>51.597305595081352</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19825603</v>
       </c>
       <c r="B27">
-        <f>_xlfn.IFNA(VLOOKUP(A27,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C27" t="s">
@@ -2024,12 +1982,11 @@
         <v>51.599735921030593</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19825604</v>
       </c>
       <c r="B28">
-        <f>_xlfn.IFNA(VLOOKUP(A28,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -2072,12 +2029,11 @@
         <v>51.597167799956623</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>19825611</v>
       </c>
       <c r="B29">
-        <f>_xlfn.IFNA(VLOOKUP(A29,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -2120,12 +2076,11 @@
         <v>51.599012573241737</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>19825612</v>
       </c>
       <c r="B30">
-        <f>_xlfn.IFNA(VLOOKUP(A30,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C30" t="s">
@@ -2168,12 +2123,11 @@
         <v>51.599236159038888</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2.27105157513432E+17</v>
       </c>
       <c r="B31">
-        <f>_xlfn.IFNA(VLOOKUP(A31,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C31" t="s">
@@ -2216,13 +2170,12 @@
         <v>51.596372637596168</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2.7989671968155602E+18</v>
       </c>
       <c r="B32">
-        <f>_xlfn.IFNA(VLOOKUP(A32,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2264,12 +2217,11 @@
         <v>51.599534378003781</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>28181921</v>
       </c>
       <c r="B33">
-        <f>_xlfn.IFNA(VLOOKUP(A33,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C33" t="s">
@@ -2312,13 +2264,12 @@
         <v>51.599587109001533</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3.0499971861772498E+18</v>
       </c>
       <c r="B34">
-        <f>_xlfn.IFNA(VLOOKUP(A34,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2360,13 +2311,12 @@
         <v>51.596472934177598</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3.0528636989113702E+17</v>
       </c>
       <c r="B35">
-        <f>_xlfn.IFNA(VLOOKUP(A35,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2408,13 +2358,12 @@
         <v>51.597157154784142</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35636742</v>
       </c>
       <c r="B36">
-        <f>_xlfn.IFNA(VLOOKUP(A36,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -2456,12 +2405,11 @@
         <v>51.601349230326541</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42069358</v>
       </c>
       <c r="B37">
-        <f>_xlfn.IFNA(VLOOKUP(A37,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C37" t="s">
@@ -2504,12 +2452,11 @@
         <v>51.600417292798177</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42071205</v>
       </c>
       <c r="B38">
-        <f>_xlfn.IFNA(VLOOKUP(A38,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C38" t="s">
@@ -2552,12 +2499,11 @@
         <v>51.597650702027579</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42071209</v>
       </c>
       <c r="B39">
-        <f>_xlfn.IFNA(VLOOKUP(A39,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C39" t="s">
@@ -2600,13 +2546,12 @@
         <v>51.597650702027579</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6.4995417924872305E+18</v>
       </c>
       <c r="B40">
-        <f>_xlfn.IFNA(VLOOKUP(A40,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2648,13 +2593,12 @@
         <v>51.596345950834483</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>8.2800707877037804E+18</v>
       </c>
       <c r="B41">
-        <f>_xlfn.IFNA(VLOOKUP(A41,[1]!Table1[#All],2,FALSE),0)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2696,12 +2640,11 @@
         <v>51.596977978610383</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>9.0974737034574397E+18</v>
       </c>
       <c r="B42">
-        <f>_xlfn.IFNA(VLOOKUP(A42,[1]!Table1[#All],2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C42" t="s">
